--- a/menus.xlsx
+++ b/menus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cho\Documents\GitHub\class.DataScience\class.DataScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C98E77B-D3A9-4881-ADFC-EA59783C6D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA8B462-B5B6-4DC8-B9AB-9C9161A32B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56740" yWindow="5690" windowWidth="19640" windowHeight="13440" xr2:uid="{87EF8501-0E8F-4455-8F0D-227BBE752F24}"/>
+    <workbookView xWindow="45380" yWindow="2520" windowWidth="19640" windowHeight="13440" xr2:uid="{87EF8501-0E8F-4455-8F0D-227BBE752F24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Amout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +167,10 @@
   </si>
   <si>
     <t>베이컨치즈버거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +538,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D26"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -551,15 +551,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>6500</v>
@@ -568,12 +568,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>6000</v>
@@ -582,12 +582,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>6000</v>
@@ -596,12 +596,12 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>5500</v>
@@ -610,12 +610,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>7500</v>
@@ -624,12 +624,12 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>4000</v>
@@ -638,12 +638,12 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>5000</v>
@@ -652,12 +652,12 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>5500</v>
@@ -666,12 +666,12 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>3000</v>
@@ -680,12 +680,12 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>4000</v>
@@ -694,12 +694,12 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>7000</v>
@@ -708,12 +708,12 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>13000</v>
@@ -722,12 +722,12 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>8000</v>
@@ -736,12 +736,12 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>14000</v>
@@ -750,12 +750,12 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>5000</v>
@@ -764,12 +764,12 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>8500</v>
@@ -778,12 +778,12 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>4500</v>
@@ -792,12 +792,12 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>7500</v>
@@ -806,12 +806,12 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>9000</v>
@@ -820,12 +820,12 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>8500</v>
@@ -834,12 +834,12 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>50000</v>
@@ -848,12 +848,12 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>12000</v>
@@ -862,12 +862,12 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>13000</v>
@@ -876,12 +876,12 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>43000</v>
@@ -890,12 +890,12 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>10000</v>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
